--- a/track_results/demo_tracktor_and_jde30/summary_demo_tracktor_and_jde30.xlsx
+++ b/track_results/demo_tracktor_and_jde30/summary_demo_tracktor_and_jde30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,118 +650,120 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>MOT17-05-SDP</t>
+          <t>MOT17-09-SDP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.5055185225658398</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.6045478306325144</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.4343661971830986</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6824413145539906</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.9498170412963931</v>
       </c>
       <c r="G4" t="n">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>5688</v>
+        <v>192</v>
       </c>
       <c r="L4" t="n">
-        <v>6917</v>
+        <v>1691</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.8223218158161052</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>0.6326760563380281</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.1607554178075387</v>
+      </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MOT17-09-SDP</t>
+          <t>MOT17-10-SDP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5055185225658398</v>
+        <v>0.389902626626299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6045478306325144</v>
+        <v>0.4106696543997242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4343661971830986</v>
+        <v>0.3711348235843913</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6824413145539906</v>
+        <v>0.7234208271672249</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9498170412963931</v>
+        <v>0.800482633801603</v>
       </c>
       <c r="G5" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>192</v>
+        <v>2315</v>
       </c>
       <c r="L5" t="n">
-        <v>1691</v>
+        <v>3551</v>
       </c>
       <c r="M5" t="n">
-        <v>73</v>
+        <v>457</v>
       </c>
       <c r="N5" t="n">
-        <v>77</v>
+        <v>481</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6326760563380281</v>
+        <v>0.507516161694836</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1607554178075387</v>
+        <v>0.2339750943313432</v>
       </c>
       <c r="Q5" t="n">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="R5" t="n">
-        <v>66</v>
+        <v>378</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -770,242 +772,183 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MOT17-10-SDP</t>
+          <t>MOT17-11-SDP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.389902626626299</v>
+        <v>0.5485936188077246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4106696543997242</v>
+        <v>0.5433471933471934</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3711348235843913</v>
+        <v>0.5539423484527342</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7234208271672249</v>
+        <v>0.7990674014412886</v>
       </c>
       <c r="F6" t="n">
-        <v>0.800482633801603</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="G6" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>2315</v>
+        <v>2080</v>
       </c>
       <c r="L6" t="n">
-        <v>3551</v>
+        <v>1896</v>
       </c>
       <c r="M6" t="n">
-        <v>457</v>
+        <v>138</v>
       </c>
       <c r="N6" t="n">
-        <v>481</v>
+        <v>135</v>
       </c>
       <c r="O6" t="n">
-        <v>0.507516161694836</v>
+        <v>0.5640101738024587</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2339750943313432</v>
+        <v>0.1612286215498108</v>
       </c>
       <c r="Q6" t="n">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="R6" t="n">
-        <v>378</v>
+        <v>123</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>MOT17-11-SDP</t>
+          <t>MOT17-13-SDP</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5485936188077246</v>
+        <v>0.4199402130436613</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5433471933471934</v>
+        <v>0.4118424312494838</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5539423484527342</v>
+        <v>0.4283628242570005</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7990674014412886</v>
+        <v>0.6760865830613296</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.6500123874803865</v>
       </c>
       <c r="G7" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="H7" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K7" t="n">
-        <v>2080</v>
+        <v>4238</v>
       </c>
       <c r="L7" t="n">
-        <v>1896</v>
+        <v>3771</v>
       </c>
       <c r="M7" t="n">
-        <v>138</v>
+        <v>713</v>
       </c>
       <c r="N7" t="n">
-        <v>135</v>
+        <v>603</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5640101738024587</v>
+        <v>0.2508160109946744</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1612286215498108</v>
+        <v>0.245770811573115</v>
       </c>
       <c r="Q7" t="n">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="R7" t="n">
-        <v>123</v>
+        <v>604</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MOT17-13-SDP</t>
+          <t>OVERALL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4199402130436613</v>
+        <v>0.51442082370102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4118424312494838</v>
+        <v>0.5779055596966363</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4283628242570005</v>
+        <v>0.463503511102676</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6760865830613296</v>
+        <v>0.6852628582273677</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6500123874803865</v>
+        <v>0.8543996024562525</v>
       </c>
       <c r="G8" t="n">
-        <v>110</v>
+        <v>413</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="I8" t="n">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="J8" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="K8" t="n">
-        <v>4238</v>
+        <v>12306</v>
       </c>
       <c r="L8" t="n">
-        <v>3771</v>
+        <v>33167</v>
       </c>
       <c r="M8" t="n">
-        <v>713</v>
+        <v>1740</v>
       </c>
       <c r="N8" t="n">
-        <v>603</v>
+        <v>1805</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2508160109946744</v>
+        <v>0.5519738090719302</v>
       </c>
       <c r="P8" t="n">
-        <v>0.245770811573115</v>
+        <v>0.191787290849853</v>
       </c>
       <c r="Q8" t="n">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="R8" t="n">
-        <v>604</v>
+        <v>1487</v>
       </c>
       <c r="S8" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>OVERALL</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.4824003476474539</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5414657399093197</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.4349537387463601</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.643053687988103</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8005254581130068</v>
-      </c>
-      <c r="G9" t="n">
-        <v>546</v>
-      </c>
-      <c r="H9" t="n">
-        <v>141</v>
-      </c>
-      <c r="I9" t="n">
-        <v>219</v>
-      </c>
-      <c r="J9" t="n">
-        <v>186</v>
-      </c>
-      <c r="K9" t="n">
-        <v>17994</v>
-      </c>
-      <c r="L9" t="n">
-        <v>40084</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1740</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1805</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.4673232588582064</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>273</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1487</v>
-      </c>
-      <c r="S9" t="n">
         <v>38</v>
       </c>
     </row>
